--- a/data/trans_orig/P36B12-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B12-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>14491</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8594</v>
+        <v>8616</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24085</v>
+        <v>23269</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02088071546893343</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01238353981818399</v>
+        <v>0.01241417568369789</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03470464575934504</v>
+        <v>0.03352853621736997</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -765,19 +765,19 @@
         <v>9373</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4281</v>
+        <v>4439</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16917</v>
+        <v>16843</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01361721145452098</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006219275681824201</v>
+        <v>0.006448444068598056</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02457573345695037</v>
+        <v>0.02446828766468654</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>24</v>
@@ -786,19 +786,19 @@
         <v>23865</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>16635</v>
+        <v>15107</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>34484</v>
+        <v>36273</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01726383632638507</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0120339373914533</v>
+        <v>0.01092870183938485</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02494533939472658</v>
+        <v>0.02623987233778169</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>162969</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>141043</v>
+        <v>143106</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>187542</v>
+        <v>187826</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2348218522040732</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2032282300843616</v>
+        <v>0.2062013427375559</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2702294110468142</v>
+        <v>0.2706385334647711</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>148</v>
@@ -836,19 +836,19 @@
         <v>145431</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>125414</v>
+        <v>124728</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>166356</v>
+        <v>166405</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2112748604598085</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1821947964993234</v>
+        <v>0.1811985552835835</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2416732111880869</v>
+        <v>0.2417442798133455</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>304</v>
@@ -857,19 +857,19 @@
         <v>308400</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>280189</v>
+        <v>279807</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>338517</v>
+        <v>339456</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2230965715212788</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2026887105480593</v>
+        <v>0.2024123792117002</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2448830111040307</v>
+        <v>0.2455624128481283</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>399303</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>373654</v>
+        <v>372972</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>425910</v>
+        <v>422966</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5753546245142241</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5383973627801026</v>
+        <v>0.5374145818548888</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6136930222550895</v>
+        <v>0.6094503761910433</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>457</v>
@@ -907,19 +907,19 @@
         <v>449400</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>423553</v>
+        <v>425815</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>473118</v>
+        <v>474267</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6528644835540965</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6153154497744158</v>
+        <v>0.6186022015847752</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6873206596025069</v>
+        <v>0.6889904868167557</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>855</v>
@@ -928,19 +928,19 @@
         <v>848703</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>815771</v>
+        <v>810998</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>885121</v>
+        <v>881904</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6139508436320097</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5901279873955947</v>
+        <v>0.5866753002663445</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6402953829728256</v>
+        <v>0.6379687233997422</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>97287</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>80412</v>
+        <v>80183</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>117147</v>
+        <v>117189</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1401799533451186</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1158654009969444</v>
+        <v>0.1155347580160553</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1687969167837381</v>
+        <v>0.168856722329471</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>79</v>
@@ -978,19 +978,19 @@
         <v>81178</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>66448</v>
+        <v>64214</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>100094</v>
+        <v>97268</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1179315385136908</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09653223350791769</v>
+        <v>0.09328738408674422</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1454107380092627</v>
+        <v>0.1413057504342014</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>176</v>
@@ -999,19 +999,19 @@
         <v>178465</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>152962</v>
+        <v>155136</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>203238</v>
+        <v>203134</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1291013021323039</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1106525439317342</v>
+        <v>0.1122255295983307</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1470219005275695</v>
+        <v>0.146947013784765</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>19962</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>11227</v>
+        <v>11371</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>31221</v>
+        <v>30909</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02876285446765061</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01617750996814211</v>
+        <v>0.01638483936553822</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04498563448216975</v>
+        <v>0.04453675414807384</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -1049,19 +1049,19 @@
         <v>2968</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>8925</v>
+        <v>9073</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.004311906017883277</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.001342799305379035</v>
+        <v>0.0013442565121855</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0129660869934749</v>
+        <v>0.01318141188252779</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>20</v>
@@ -1070,19 +1070,19 @@
         <v>22930</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>13400</v>
+        <v>15009</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>35204</v>
+        <v>35757</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01658744638802249</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.009693200840491065</v>
+        <v>0.01085734175375178</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02546662553950109</v>
+        <v>0.02586673942446188</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>19943</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11947</v>
+        <v>12771</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>30286</v>
+        <v>29796</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02080195509104589</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01246141929336276</v>
+        <v>0.01332144596909167</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03159111523176733</v>
+        <v>0.03107945972413959</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>38</v>
@@ -1195,19 +1195,19 @@
         <v>41594</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>30333</v>
+        <v>29663</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>56784</v>
+        <v>56614</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0430396543272992</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03138654581815439</v>
+        <v>0.03069426657863996</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05875699354935348</v>
+        <v>0.05858121338081098</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>58</v>
@@ -1216,19 +1216,19 @@
         <v>61537</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>47134</v>
+        <v>46835</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>79846</v>
+        <v>79521</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03196536386278678</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02448359888983371</v>
+        <v>0.02432825502205564</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0414760049617118</v>
+        <v>0.04130688762262129</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>190623</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>167456</v>
+        <v>168214</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>216061</v>
+        <v>217971</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1988339270290348</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1746697740325827</v>
+        <v>0.1754603505142575</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.225368324749935</v>
+        <v>0.2273597809600672</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>131</v>
@@ -1266,19 +1266,19 @@
         <v>139522</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>119516</v>
+        <v>118169</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>164136</v>
+        <v>163065</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1443700708715581</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1236689087081551</v>
+        <v>0.1222750858481487</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1698391830411567</v>
+        <v>0.1687310989830403</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>315</v>
@@ -1287,19 +1287,19 @@
         <v>330145</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>296067</v>
+        <v>296122</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>365164</v>
+        <v>363108</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1714928661075882</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1537913405794673</v>
+        <v>0.1538198640404611</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1896837845798212</v>
+        <v>0.1886155763824532</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>500132</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>472650</v>
+        <v>466347</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>531417</v>
+        <v>533036</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5216761219131312</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4930098564537559</v>
+        <v>0.4864352317341623</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5543080294631408</v>
+        <v>0.555997130822821</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>547</v>
@@ -1337,19 +1337,19 @@
         <v>580554</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>550795</v>
+        <v>549148</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>611836</v>
+        <v>610767</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6007275661375669</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5699348581317817</v>
+        <v>0.5682302782609158</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6330967903756148</v>
+        <v>0.631990879179784</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1015</v>
@@ -1358,19 +1358,19 @@
         <v>1080686</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1037974</v>
+        <v>1035628</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1127543</v>
+        <v>1124271</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5613602446498562</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5391734681083591</v>
+        <v>0.5379545001457796</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5856998029329186</v>
+        <v>0.5840000413642348</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>227065</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>198957</v>
+        <v>198513</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>253266</v>
+        <v>255481</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2368455195720714</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2075277171721778</v>
+        <v>0.2070637078054743</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2641753409224498</v>
+        <v>0.2664865338921534</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>174</v>
@@ -1408,19 +1408,19 @@
         <v>187024</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>164140</v>
+        <v>162061</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>212676</v>
+        <v>210466</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1935228325295242</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1698438281095309</v>
+        <v>0.1676923688380358</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2200661094306573</v>
+        <v>0.217779652685626</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>377</v>
@@ -1429,19 +1429,19 @@
         <v>414088</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>375231</v>
+        <v>378789</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>450915</v>
+        <v>452749</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2150973675079534</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1949131276276512</v>
+        <v>0.1967611131147008</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.234227034745591</v>
+        <v>0.2351792717198833</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>20940</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>12743</v>
+        <v>12844</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>33551</v>
+        <v>33509</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0218424763947167</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01329195152293648</v>
+        <v>0.0133969094490279</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03499595843037347</v>
+        <v>0.03495225044225914</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>16</v>
@@ -1479,19 +1479,19 @@
         <v>17724</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>10935</v>
+        <v>10855</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>28150</v>
+        <v>28344</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01833987613405152</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01131448662294844</v>
+        <v>0.01123261242886426</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02912814717007253</v>
+        <v>0.02932897430270438</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>34</v>
@@ -1500,19 +1500,19 @@
         <v>38664</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>26472</v>
+        <v>26100</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>53582</v>
+        <v>53296</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02008415787181543</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01375073633488257</v>
+        <v>0.01355779279856267</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02783284344409972</v>
+        <v>0.02768439393393446</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>14167</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8386</v>
+        <v>7663</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>24099</v>
+        <v>24363</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02087967669711599</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01235998667850257</v>
+        <v>0.01129389709365627</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03551794412223232</v>
+        <v>0.03590681366464406</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>25</v>
@@ -1625,19 +1625,19 @@
         <v>24045</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>16057</v>
+        <v>15706</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>35337</v>
+        <v>35363</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0352129020109284</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02351386921475656</v>
+        <v>0.02300078315068113</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05174817773486941</v>
+        <v>0.05178621885787461</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>38</v>
@@ -1646,19 +1646,19 @@
         <v>38213</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>27917</v>
+        <v>27339</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>52627</v>
+        <v>51260</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02806919616641269</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02050666366448904</v>
+        <v>0.02008225889533429</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03865722398155519</v>
+        <v>0.03765330888018953</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>119048</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>98913</v>
+        <v>99294</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>141099</v>
+        <v>140370</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.175455676473697</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1457798233178433</v>
+        <v>0.1463421311382111</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2079552045920626</v>
+        <v>0.2068803344403951</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>127</v>
@@ -1696,19 +1696,19 @@
         <v>120570</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>102075</v>
+        <v>102309</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>140142</v>
+        <v>140102</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.176566311480087</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1494817370896835</v>
+        <v>0.1498247328727785</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2052278002761356</v>
+        <v>0.2051696914655437</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>242</v>
@@ -1717,19 +1717,19 @@
         <v>239618</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>213269</v>
+        <v>213089</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>268834</v>
+        <v>268391</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1760127689512728</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1566580525739923</v>
+        <v>0.156525559158487</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1974729867337922</v>
+        <v>0.1971481958620788</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>397942</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>370800</v>
+        <v>372597</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>425191</v>
+        <v>425635</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5864943153324532</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.546492653723013</v>
+        <v>0.549140787255526</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.626654423924217</v>
+        <v>0.6273091504748887</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>420</v>
@@ -1767,19 +1767,19 @@
         <v>415312</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>390960</v>
+        <v>392031</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>440717</v>
+        <v>439946</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.608195470159117</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.572533179082383</v>
+        <v>0.5741014414195943</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6453983437632663</v>
+        <v>0.6442697000998802</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>799</v>
@@ -1788,19 +1788,19 @@
         <v>813254</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>772698</v>
+        <v>779138</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>847992</v>
+        <v>848164</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5973795747012688</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5675887423608864</v>
+        <v>0.5723198246456827</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6228966654389975</v>
+        <v>0.6230230229298579</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>135559</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>114740</v>
+        <v>113842</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>158216</v>
+        <v>157416</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1997894019084058</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1691067219757661</v>
+        <v>0.1677820040396458</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2331816324258822</v>
+        <v>0.2320035448919037</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>116</v>
@@ -1838,19 +1838,19 @@
         <v>116318</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>98571</v>
+        <v>97585</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>139612</v>
+        <v>135705</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1703390481867029</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1443499753037984</v>
+        <v>0.1429070283463323</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2044521117867998</v>
+        <v>0.1987300485768654</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>238</v>
@@ -1859,19 +1859,19 @@
         <v>251877</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>224584</v>
+        <v>224951</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>282187</v>
+        <v>282921</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1850171586188359</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1649688946751165</v>
+        <v>0.1652387905662359</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2072814621636037</v>
+        <v>0.2078208011732015</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>11793</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6445</v>
+        <v>6574</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>20886</v>
+        <v>20489</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01738092958832806</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.009498575535569095</v>
+        <v>0.009688814049636882</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03078164374432812</v>
+        <v>0.03019715051842256</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>7</v>
@@ -1909,19 +1909,19 @@
         <v>6614</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2761</v>
+        <v>2793</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>12608</v>
+        <v>13090</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.009686268163164662</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.004043343604872891</v>
+        <v>0.004090435313312837</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01846284474974032</v>
+        <v>0.01916952773965204</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>19</v>
@@ -1930,19 +1930,19 @@
         <v>18407</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>11611</v>
+        <v>11077</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>28545</v>
+        <v>27277</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01352130156220977</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.008529097068958462</v>
+        <v>0.008136354268663141</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02096753364295812</v>
+        <v>0.02003670717495819</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>28918</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>19752</v>
+        <v>19746</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>39918</v>
+        <v>42080</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03073955786331515</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02099687897051324</v>
+        <v>0.0209897125936731</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0424332294582539</v>
+        <v>0.04473153299451418</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>26</v>
@@ -2055,19 +2055,19 @@
         <v>29090</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>19090</v>
+        <v>19934</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>42108</v>
+        <v>42368</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02806672477206933</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01841905686899918</v>
+        <v>0.01923318189754147</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04062730847245672</v>
+        <v>0.04087782968753981</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>57</v>
@@ -2076,19 +2076,19 @@
         <v>58007</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>43166</v>
+        <v>44055</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>74923</v>
+        <v>73746</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02933844449213614</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02183204164573242</v>
+        <v>0.02228155626287384</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03789402404411358</v>
+        <v>0.03729858392927492</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>189303</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>167426</v>
+        <v>168522</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>213663</v>
+        <v>213993</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2012288846117664</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1779737552471672</v>
+        <v>0.1791392651160089</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2271241280363695</v>
+        <v>0.2274744375521589</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>208</v>
@@ -2126,19 +2126,19 @@
         <v>213764</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>191377</v>
+        <v>188563</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>240650</v>
+        <v>240225</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2062460382280089</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1846464215450514</v>
+        <v>0.1819313627710384</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.232186532529278</v>
+        <v>0.231777185493659</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>411</v>
@@ -2147,19 +2147,19 @@
         <v>403066</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>367884</v>
+        <v>367835</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>439896</v>
+        <v>441781</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.203858903313645</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1860645286524918</v>
+        <v>0.1860399898918466</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2224863627904745</v>
+        <v>0.2234394714367784</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>495924</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>464620</v>
+        <v>469034</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>526828</v>
+        <v>526583</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5271681196542427</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4938919341388779</v>
+        <v>0.498583306359413</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5600185921256364</v>
+        <v>0.559757794590805</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>543</v>
@@ -2197,19 +2197,19 @@
         <v>563294</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>532957</v>
+        <v>530711</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>594326</v>
+        <v>596746</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5434835665094057</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5142139129504673</v>
+        <v>0.5120468545275411</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.573424219349653</v>
+        <v>0.5757593078721488</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1068</v>
@@ -2218,19 +2218,19 @@
         <v>1059218</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1017106</v>
+        <v>1016904</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1105297</v>
+        <v>1105469</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5357207639702686</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5144219174831586</v>
+        <v>0.514319401020729</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5590263239740467</v>
+        <v>0.5591131462174176</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>203117</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>179988</v>
+        <v>180687</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>233027</v>
+        <v>228713</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2159137178068134</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1913274636329214</v>
+        <v>0.1920703271613365</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2477081097984121</v>
+        <v>0.2431217348784368</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>198</v>
@@ -2268,19 +2268,19 @@
         <v>209610</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>184502</v>
+        <v>182967</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>236657</v>
+        <v>235643</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2022386551756561</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1780136408579021</v>
+        <v>0.1765325715095043</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2283344178664662</v>
+        <v>0.2273557358927367</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>408</v>
@@ -2289,19 +2289,19 @@
         <v>412727</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>374409</v>
+        <v>379725</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>449061</v>
+        <v>450254</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2087451769925816</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1893648557165411</v>
+        <v>0.1920533192747989</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2271214052828455</v>
+        <v>0.2277248610932518</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>23471</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>15104</v>
+        <v>15135</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>34961</v>
+        <v>35294</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02494972006386236</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01605537619029862</v>
+        <v>0.01608815757365949</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0371634080500883</v>
+        <v>0.03751748775216461</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>20</v>
@@ -2339,19 +2339,19 @@
         <v>20693</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>12345</v>
+        <v>13174</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>30283</v>
+        <v>31423</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01996501531486004</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01191055444521909</v>
+        <v>0.0127102681209934</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02921783693071876</v>
+        <v>0.03031771759131773</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>44</v>
@@ -2360,19 +2360,19 @@
         <v>44164</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>32497</v>
+        <v>32199</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>59255</v>
+        <v>59472</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02233671123136869</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01643592084437126</v>
+        <v>0.01628517993977511</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02996922060036853</v>
+        <v>0.0300793838233349</v>
       </c>
     </row>
     <row r="27">
@@ -2464,19 +2464,19 @@
         <v>77519</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>61008</v>
+        <v>61494</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>95028</v>
+        <v>96805</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0236919769456235</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01864587279510383</v>
+        <v>0.01879411542397564</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0290433006928698</v>
+        <v>0.02958625890199057</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>98</v>
@@ -2485,19 +2485,19 @@
         <v>104103</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>84999</v>
+        <v>84512</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>125814</v>
+        <v>126245</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.03085373994820717</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02519161751832346</v>
+        <v>0.02504753692324735</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03728841984493426</v>
+        <v>0.03741606948085847</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>177</v>
@@ -2506,19 +2506,19 @@
         <v>181622</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>157416</v>
+        <v>156696</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>208963</v>
+        <v>208931</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02732788175091255</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02368564001440123</v>
+        <v>0.02357741301614497</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03144174274414107</v>
+        <v>0.03143689946176934</v>
       </c>
     </row>
     <row r="29">
@@ -2535,19 +2535,19 @@
         <v>661943</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>616473</v>
+        <v>614511</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>710229</v>
+        <v>709841</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.202307908816129</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1884111370768948</v>
+        <v>0.1878115497700158</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2170653599497573</v>
+        <v>0.2169469849294636</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>614</v>
@@ -2556,19 +2556,19 @@
         <v>619287</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>573278</v>
+        <v>574679</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>668899</v>
+        <v>667327</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1835424947623933</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1699064289144005</v>
+        <v>0.1703218139209456</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1982464284783355</v>
+        <v>0.1977803425504246</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1272</v>
@@ -2577,19 +2577,19 @@
         <v>1281230</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1215264</v>
+        <v>1213949</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1342295</v>
+        <v>1342800</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1927810284786197</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1828554967311054</v>
+        <v>0.1826576311395013</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2019692602453758</v>
+        <v>0.2020452778730679</v>
       </c>
     </row>
     <row r="30">
@@ -2606,19 +2606,19 @@
         <v>1793302</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1737620</v>
+        <v>1733759</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1851974</v>
+        <v>1845770</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.5480822640892569</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5310643753720039</v>
+        <v>0.5298843004002329</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5660141878283305</v>
+        <v>0.5641180160030863</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1967</v>
@@ -2627,19 +2627,19 @@
         <v>2008560</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1951434</v>
+        <v>1953998</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>2069189</v>
+        <v>2067894</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.5952912681968249</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.5783603890031304</v>
+        <v>0.5791204815123948</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.6132602915328513</v>
+        <v>0.6128766306154354</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3737</v>
@@ -2648,19 +2648,19 @@
         <v>3801861</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>3720669</v>
+        <v>3718668</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>3885269</v>
+        <v>3881625</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.572049469486265</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.5598327910409937</v>
+        <v>0.5595316802633831</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5845993786686804</v>
+        <v>0.584051156339314</v>
       </c>
     </row>
     <row r="31">
@@ -2677,19 +2677,19 @@
         <v>663027</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>616890</v>
+        <v>616153</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>707849</v>
+        <v>713117</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2026393177177473</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1885385690110961</v>
+        <v>0.1883134257351913</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2163381496449907</v>
+        <v>0.217948150212796</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>567</v>
@@ -2698,19 +2698,19 @@
         <v>594130</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>548109</v>
+        <v>549180</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>639677</v>
+        <v>636997</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1760866319368714</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1624468920314942</v>
+        <v>0.1627642973101889</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1895856753068395</v>
+        <v>0.1887912567094009</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1199</v>
@@ -2719,19 +2719,19 @@
         <v>1257157</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1198314</v>
+        <v>1189050</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1322296</v>
+        <v>1323929</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1891589724746573</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1803051407003721</v>
+        <v>0.1789111661999193</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1989600579139274</v>
+        <v>0.1992057938334786</v>
       </c>
     </row>
     <row r="32">
@@ -2748,19 +2748,19 @@
         <v>76166</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>59901</v>
+        <v>59695</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>96693</v>
+        <v>95379</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02327853243124331</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01830749678908991</v>
+        <v>0.01824437743757236</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02955194151437991</v>
+        <v>0.02915034301995925</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>46</v>
@@ -2769,19 +2769,19 @@
         <v>47999</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>35877</v>
+        <v>35528</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>63985</v>
+        <v>62100</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01422586515570323</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.0106332146060362</v>
+        <v>0.01052968050133416</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01896369885335674</v>
+        <v>0.01840511851593509</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>117</v>
@@ -2790,19 +2790,19 @@
         <v>124166</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>103719</v>
+        <v>105219</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>148375</v>
+        <v>148864</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01868264780954544</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01560615839486468</v>
+        <v>0.01583178365118193</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02232535321904186</v>
+        <v>0.02239885604600995</v>
       </c>
     </row>
     <row r="33">
@@ -3134,19 +3134,19 @@
         <v>21489</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12813</v>
+        <v>13698</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>32581</v>
+        <v>33922</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03058805318430261</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01823906317116651</v>
+        <v>0.01949845474889772</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04637766676367686</v>
+        <v>0.04828703530265761</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -3155,19 +3155,19 @@
         <v>23742</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14716</v>
+        <v>14572</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>36581</v>
+        <v>35277</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03420541468006087</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02120230990405747</v>
+        <v>0.02099381156656919</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05270267212148461</v>
+        <v>0.05082422498314453</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>41</v>
@@ -3176,19 +3176,19 @@
         <v>45230</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>32967</v>
+        <v>32152</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>60922</v>
+        <v>60107</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0323858247585165</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02360487676730195</v>
+        <v>0.02302145957127269</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04362152192273164</v>
+        <v>0.0430378390599087</v>
       </c>
     </row>
     <row r="5">
@@ -3205,19 +3205,19 @@
         <v>142427</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>121411</v>
+        <v>121633</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>167527</v>
+        <v>165094</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2027378366641522</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1728236677691444</v>
+        <v>0.1731392830170701</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.238467019029243</v>
+        <v>0.2350043352498699</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>134</v>
@@ -3226,19 +3226,19 @@
         <v>145158</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>124043</v>
+        <v>124333</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>169684</v>
+        <v>168028</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2091331018776018</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1787120607910686</v>
+        <v>0.1791305039427004</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2444683778616113</v>
+        <v>0.2420822594997387</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>265</v>
@@ -3247,19 +3247,19 @@
         <v>287584</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>254250</v>
+        <v>256297</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>317235</v>
+        <v>319078</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2059161825451984</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1820481556979475</v>
+        <v>0.1835135085327034</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2271466864345672</v>
+        <v>0.2284661472150515</v>
       </c>
     </row>
     <row r="6">
@@ -3276,19 +3276,19 @@
         <v>390676</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>364494</v>
+        <v>363905</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>419897</v>
+        <v>416700</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5561104556597765</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5188404019611019</v>
+        <v>0.5180027259971025</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5977042253755728</v>
+        <v>0.5931538974419639</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>387</v>
@@ -3297,19 +3297,19 @@
         <v>411547</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>385534</v>
+        <v>384825</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>437517</v>
+        <v>437139</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5929273564023492</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5554498018117572</v>
+        <v>0.5544290089494009</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6303441410051995</v>
+        <v>0.6297995590224789</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>767</v>
@@ -3318,19 +3318,19 @@
         <v>802223</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>761178</v>
+        <v>764261</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>842083</v>
+        <v>838561</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.574407874284723</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5450188682338811</v>
+        <v>0.5472261980974952</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6029483732999239</v>
+        <v>0.6004262720295227</v>
       </c>
     </row>
     <row r="7">
@@ -3347,19 +3347,19 @@
         <v>134256</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>112275</v>
+        <v>114846</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>157432</v>
+        <v>158252</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1911067260204564</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1598180576646782</v>
+        <v>0.1634781182700344</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2240974960345868</v>
+        <v>0.2252650324481449</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>102</v>
@@ -3368,19 +3368,19 @@
         <v>109467</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>92193</v>
+        <v>91916</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>129950</v>
+        <v>131775</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1577118481513243</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1328253353774498</v>
+        <v>0.1324263810919249</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1872230117609755</v>
+        <v>0.1898516501029154</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>230</v>
@@ -3389,19 +3389,19 @@
         <v>243722</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>216131</v>
+        <v>217340</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>272564</v>
+        <v>274923</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1745099987572649</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1547541897469804</v>
+        <v>0.1556198825153584</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1951611200629561</v>
+        <v>0.1968501021043864</v>
       </c>
     </row>
     <row r="8">
@@ -3418,19 +3418,19 @@
         <v>13669</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7718</v>
+        <v>7951</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>22256</v>
+        <v>22715</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01945692847131233</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0109867717804595</v>
+        <v>0.01131729156153951</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03168033088111593</v>
+        <v>0.03233347707491836</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -3439,19 +3439,19 @@
         <v>4180</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1098</v>
+        <v>1044</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>10110</v>
+        <v>10242</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.006022278888663858</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.001582178315103513</v>
+        <v>0.001504543957533633</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01456625516213728</v>
+        <v>0.01475616186067422</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>18</v>
@@ -3460,19 +3460,19 @@
         <v>17849</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>10066</v>
+        <v>11088</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>27453</v>
+        <v>27804</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01278011965429717</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.007207549725380791</v>
+        <v>0.007939272087345297</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01965717848215946</v>
+        <v>0.01990788631563244</v>
       </c>
     </row>
     <row r="9">
@@ -3564,19 +3564,19 @@
         <v>20979</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12706</v>
+        <v>12176</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>32491</v>
+        <v>32094</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02066983628255186</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01251858093959467</v>
+        <v>0.01199605036400964</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03201212274146478</v>
+        <v>0.0316207992449153</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>18</v>
@@ -3585,19 +3585,19 @@
         <v>19821</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12351</v>
+        <v>12323</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>30802</v>
+        <v>30229</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01922123135565462</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01197706579480225</v>
+        <v>0.01195004258102167</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02986936370686511</v>
+        <v>0.02931416945848065</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>37</v>
@@ -3606,19 +3606,19 @@
         <v>40801</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>29626</v>
+        <v>28562</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>55154</v>
+        <v>56390</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01993978297633565</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01447873650421328</v>
+        <v>0.01395865558027646</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02695465538867366</v>
+        <v>0.02755834286647563</v>
       </c>
     </row>
     <row r="11">
@@ -3635,19 +3635,19 @@
         <v>155244</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>132948</v>
+        <v>129957</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>181432</v>
+        <v>178960</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.152954422844712</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.130986543596288</v>
+        <v>0.1280399749989959</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1787557072062793</v>
+        <v>0.1763201476250261</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>142</v>
@@ -3656,19 +3656,19 @@
         <v>153122</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>130033</v>
+        <v>133021</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>176354</v>
+        <v>176715</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.148486243228026</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1260966974083619</v>
+        <v>0.1289939272526819</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1710156652923051</v>
+        <v>0.1713650458237346</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>284</v>
@@ -3677,19 +3677,19 @@
         <v>308366</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>275510</v>
+        <v>277190</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>342149</v>
+        <v>339589</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1507025947297018</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1346453986704324</v>
+        <v>0.1354665365965906</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1672129168984796</v>
+        <v>0.1659616536066739</v>
       </c>
     </row>
     <row r="12">
@@ -3706,19 +3706,19 @@
         <v>583036</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>552081</v>
+        <v>551628</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>618050</v>
+        <v>615748</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5744358914680191</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5439379331614318</v>
+        <v>0.5434911188406782</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6089335865591285</v>
+        <v>0.6066657124706218</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>546</v>
@@ -3727,19 +3727,19 @@
         <v>596374</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>564452</v>
+        <v>566102</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>630803</v>
+        <v>632413</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5783210215432179</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5473650972939378</v>
+        <v>0.5489651140944977</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6117075795660057</v>
+        <v>0.6132683422167593</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1085</v>
@@ -3748,19 +3748,19 @@
         <v>1179410</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1129808</v>
+        <v>1133998</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1223956</v>
+        <v>1228947</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5763938801534187</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5521524591837098</v>
+        <v>0.5542000913670608</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5981638235016719</v>
+        <v>0.6006033535260316</v>
       </c>
     </row>
     <row r="13">
@@ -3777,19 +3777,19 @@
         <v>243726</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>212907</v>
+        <v>215602</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>272029</v>
+        <v>272380</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2401308748177343</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.20976688117191</v>
+        <v>0.2124215908826238</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2680166296427543</v>
+        <v>0.2683628273971088</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>219</v>
@@ -3798,19 +3798,19 @@
         <v>246700</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>217451</v>
+        <v>218549</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>276739</v>
+        <v>275180</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2392321148862005</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2108685022712636</v>
+        <v>0.2119328971152854</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2683611787860478</v>
+        <v>0.2668498065827073</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>442</v>
@@ -3819,19 +3819,19 @@
         <v>490426</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>449326</v>
+        <v>445123</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>533196</v>
+        <v>528535</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2396779268487416</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2195915488826366</v>
+        <v>0.2175377298887223</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2605803281725905</v>
+        <v>0.2583022561428564</v>
       </c>
     </row>
     <row r="14">
@@ -3848,19 +3848,19 @@
         <v>11986</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5505</v>
+        <v>6182</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>20973</v>
+        <v>22153</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01180897458698271</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.005424258674880843</v>
+        <v>0.006090790838839962</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02066375748277893</v>
+        <v>0.02182601368272533</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>14</v>
@@ -3869,19 +3869,19 @@
         <v>15200</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>9495</v>
+        <v>8844</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>25251</v>
+        <v>24766</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01473938898690101</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.009207423782175353</v>
+        <v>0.008575827949611215</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02448674668431361</v>
+        <v>0.024016527954472</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>24</v>
@@ -3890,19 +3890,19 @@
         <v>27185</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>17598</v>
+        <v>17139</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>41327</v>
+        <v>39231</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01328581529180223</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.008600552612125697</v>
+        <v>0.008375993042499169</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02019717949000366</v>
+        <v>0.01917264990080993</v>
       </c>
     </row>
     <row r="15">
@@ -3994,19 +3994,19 @@
         <v>20142</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12253</v>
+        <v>12409</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>30739</v>
+        <v>32248</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02669737001403787</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01624061653019938</v>
+        <v>0.01644806349654127</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04074347198972977</v>
+        <v>0.04274330227675448</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>21</v>
@@ -4015,19 +4015,19 @@
         <v>22080</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>14573</v>
+        <v>14103</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>33942</v>
+        <v>32900</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02844885722357667</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01877698990895588</v>
+        <v>0.01817055365130256</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04373246729358877</v>
+        <v>0.04238984139257568</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>39</v>
@@ -4036,19 +4036,19 @@
         <v>42222</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>31360</v>
+        <v>30416</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>58608</v>
+        <v>57855</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02758551248739225</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02048872193905229</v>
+        <v>0.01987213342895786</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03829118412232122</v>
+        <v>0.03779896020951445</v>
       </c>
     </row>
     <row r="17">
@@ -4065,19 +4065,19 @@
         <v>94270</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>77154</v>
+        <v>76023</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>115721</v>
+        <v>113660</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.124950562969356</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1022640525529859</v>
+        <v>0.1007645746366344</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1533820996352337</v>
+        <v>0.1506515174387485</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>111</v>
@@ -4086,19 +4086,19 @@
         <v>122804</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>103811</v>
+        <v>103433</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>143979</v>
+        <v>145933</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1582259981105534</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.133755423629057</v>
+        <v>0.1332678054200039</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1855092824142439</v>
+        <v>0.188026555842479</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>196</v>
@@ -4107,19 +4107,19 @@
         <v>217074</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>188267</v>
+        <v>190770</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>247708</v>
+        <v>247016</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1418238390671178</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1230031229076502</v>
+        <v>0.1246385423143987</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1618382170803991</v>
+        <v>0.1613861633270664</v>
       </c>
     </row>
     <row r="18">
@@ -4136,19 +4136,19 @@
         <v>469317</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>441136</v>
+        <v>442427</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>498320</v>
+        <v>497444</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.6220571376357231</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5847054772399209</v>
+        <v>0.5864161440723453</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6605000504045566</v>
+        <v>0.6593393301565211</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>427</v>
@@ -4157,19 +4157,19 @@
         <v>471212</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>442959</v>
+        <v>443073</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>497099</v>
+        <v>498016</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.6071311894393215</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5707290600945422</v>
+        <v>0.5708752361178406</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6404852669272048</v>
+        <v>0.6416671280720033</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>854</v>
@@ -4178,19 +4178,19 @@
         <v>940529</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>897990</v>
+        <v>902704</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>980528</v>
+        <v>980800</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.6144885019779142</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5866955550422337</v>
+        <v>0.5897757326384373</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6406216237563144</v>
+        <v>0.6407988240708995</v>
       </c>
     </row>
     <row r="19">
@@ -4207,19 +4207,19 @@
         <v>153229</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>132102</v>
+        <v>128670</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>177263</v>
+        <v>178997</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2030978300048304</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1750943488965311</v>
+        <v>0.1705459322708618</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2349532574971933</v>
+        <v>0.237252233823274</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>132</v>
@@ -4228,19 +4228,19 @@
         <v>145632</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>123828</v>
+        <v>124142</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>169141</v>
+        <v>167527</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1876382970046805</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1595455065786585</v>
+        <v>0.1599500570018214</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2179290264516751</v>
+        <v>0.2158490396719735</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>271</v>
@@ -4249,19 +4249,19 @@
         <v>298861</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>267956</v>
+        <v>268600</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>333887</v>
+        <v>333873</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1952586246707119</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1750672979537309</v>
+        <v>0.1754880454558824</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2181425895510374</v>
+        <v>0.2181336793839997</v>
       </c>
     </row>
     <row r="20">
@@ -4278,19 +4278,19 @@
         <v>17501</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>10393</v>
+        <v>11011</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>27138</v>
+        <v>27980</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0231970993760526</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0137757465025514</v>
+        <v>0.01459496430694575</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03596963491805302</v>
+        <v>0.03708553353754755</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>13</v>
@@ -4299,19 +4299,19 @@
         <v>14402</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>7674</v>
+        <v>8073</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>24380</v>
+        <v>24479</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01855565822186788</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.009887456686164687</v>
+        <v>0.01040220146171014</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03141198664190902</v>
+        <v>0.03154042211437004</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>30</v>
@@ -4320,19 +4320,19 @@
         <v>31903</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>22313</v>
+        <v>22611</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>44252</v>
+        <v>45995</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02084352179686381</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01457814490201251</v>
+        <v>0.01477276792554513</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02891204328999574</v>
+        <v>0.03005043379690852</v>
       </c>
     </row>
     <row r="21">
@@ -4424,19 +4424,19 @@
         <v>17924</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>10431</v>
+        <v>10168</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>29143</v>
+        <v>27757</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01897103795477546</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01104064406862252</v>
+        <v>0.01076201278717957</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03084547676289204</v>
+        <v>0.0293787030915813</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>17</v>
@@ -4445,19 +4445,19 @@
         <v>17922</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>10790</v>
+        <v>10144</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>27905</v>
+        <v>27649</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01711827637340189</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01030561301398841</v>
+        <v>0.009689209105185635</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02665303363323648</v>
+        <v>0.02640855278399705</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>33</v>
@@ -4466,19 +4466,19 @@
         <v>35846</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>25018</v>
+        <v>25021</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>48716</v>
+        <v>49710</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01799714701933752</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0125607619546613</v>
+        <v>0.01256211927263491</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02445859327095772</v>
+        <v>0.02495794876167841</v>
       </c>
     </row>
     <row r="23">
@@ -4495,19 +4495,19 @@
         <v>138649</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>117411</v>
+        <v>118676</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>160668</v>
+        <v>161389</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.146747717873583</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1242696266437356</v>
+        <v>0.1256086500346078</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1700536324231994</v>
+        <v>0.1708166512472768</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>198</v>
@@ -4516,19 +4516,19 @@
         <v>209630</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>183562</v>
+        <v>185204</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>238697</v>
+        <v>236218</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2002272230761308</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.175328750915282</v>
+        <v>0.1768972637421718</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2279911635423791</v>
+        <v>0.2256230574827331</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>336</v>
@@ -4537,19 +4537,19 @@
         <v>348278</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>317088</v>
+        <v>316004</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>380280</v>
+        <v>382466</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1748588390626647</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1591993129969204</v>
+        <v>0.1586550902791995</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1909259978020895</v>
+        <v>0.1920232568279782</v>
       </c>
     </row>
     <row r="24">
@@ -4566,19 +4566,19 @@
         <v>502412</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>469837</v>
+        <v>467123</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>537044</v>
+        <v>532570</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5317596622492001</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4972824025663077</v>
+        <v>0.494409278586204</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5684151380750452</v>
+        <v>0.5636795272632035</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>527</v>
@@ -4587,19 +4587,19 @@
         <v>548653</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>515192</v>
+        <v>515486</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>582264</v>
+        <v>580932</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5240443719814963</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4920844300985767</v>
+        <v>0.4923649859681523</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5561477469373352</v>
+        <v>0.5548756841670788</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1008</v>
@@ -4608,19 +4608,19 @@
         <v>1051065</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1007166</v>
+        <v>1005147</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1096209</v>
+        <v>1098420</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5277041748451389</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5056641101389902</v>
+        <v>0.5046505649774923</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5503697051215395</v>
+        <v>0.5514795762975639</v>
       </c>
     </row>
     <row r="25">
@@ -4637,19 +4637,19 @@
         <v>265665</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>235762</v>
+        <v>240859</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>294182</v>
+        <v>297859</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2811836743447794</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2495342583023906</v>
+        <v>0.2549288717356861</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3113658090855903</v>
+        <v>0.3152582590413466</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>238</v>
@@ -4658,19 +4658,19 @@
         <v>251537</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>224119</v>
+        <v>225125</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>280860</v>
+        <v>282757</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2402550023935239</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2140665162810798</v>
+        <v>0.2150275339545464</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.268262468489107</v>
+        <v>0.2700748376465664</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>490</v>
@@ -4679,19 +4679,19 @@
         <v>517202</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>478550</v>
+        <v>474962</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>555344</v>
+        <v>556271</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2596698093048481</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2402636676782332</v>
+        <v>0.2384623289011739</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2788196186589463</v>
+        <v>0.2792849215475527</v>
       </c>
     </row>
     <row r="26">
@@ -4708,19 +4708,19 @@
         <v>20160</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>12471</v>
+        <v>11822</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>30029</v>
+        <v>29691</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02133790757766205</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01319994394241357</v>
+        <v>0.01251223665701581</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03178349792770591</v>
+        <v>0.03142561978664443</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>19</v>
@@ -4729,19 +4729,19 @@
         <v>19217</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>12199</v>
+        <v>12304</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>29692</v>
+        <v>29419</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01835512617544711</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01165180564544735</v>
+        <v>0.01175196252901209</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02836028625449094</v>
+        <v>0.02809903655243938</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>39</v>
@@ -4750,19 +4750,19 @@
         <v>39377</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>28289</v>
+        <v>28088</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>53720</v>
+        <v>53049</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.0197700297680108</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01420298231619216</v>
+        <v>0.01410220595893111</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02697101256946813</v>
+        <v>0.02663413054941102</v>
       </c>
     </row>
     <row r="27">
@@ -4854,19 +4854,19 @@
         <v>80534</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>62482</v>
+        <v>63203</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>100909</v>
+        <v>101756</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02357030567241271</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01828697267362464</v>
+        <v>0.01849806734584464</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02953363418950375</v>
+        <v>0.02978135132973107</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>77</v>
@@ -4875,19 +4875,19 @@
         <v>83565</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>66331</v>
+        <v>65909</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>106225</v>
+        <v>102320</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02355009560259488</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01869312148515167</v>
+        <v>0.0185742700542054</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02993614711498331</v>
+        <v>0.02883557100402461</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>150</v>
@@ -4896,19 +4896,19 @@
         <v>164099</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>136825</v>
+        <v>139735</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>191410</v>
+        <v>191311</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02356000965109258</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01964424997167797</v>
+        <v>0.0200620239661888</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02748106269864785</v>
+        <v>0.02746680477982886</v>
       </c>
     </row>
     <row r="29">
@@ -4925,19 +4925,19 @@
         <v>530590</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>486511</v>
+        <v>484684</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>576871</v>
+        <v>576139</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1552904805169351</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1423896519827506</v>
+        <v>0.1418550963815577</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1688358466461065</v>
+        <v>0.1686216800990984</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>585</v>
@@ -4946,19 +4946,19 @@
         <v>630713</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>583903</v>
+        <v>586365</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>677216</v>
+        <v>683587</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.177745794164913</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1645540591563875</v>
+        <v>0.1652477683974466</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1908511415369581</v>
+        <v>0.1926465980977585</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1081</v>
@@ -4967,19 +4967,19 @@
         <v>1161303</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1101019</v>
+        <v>1101934</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1224532</v>
+        <v>1224861</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1667303414453585</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1580753675596602</v>
+        <v>0.1582066162610433</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1758083033520137</v>
+        <v>0.1758555229787859</v>
       </c>
     </row>
     <row r="30">
@@ -4996,19 +4996,19 @@
         <v>1945441</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1889016</v>
+        <v>1887760</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2005079</v>
+        <v>2003854</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.5693823982757402</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5528681664764985</v>
+        <v>0.5525005454356954</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.586836891197437</v>
+        <v>0.5864782087579353</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1887</v>
@@ -5017,19 +5017,19 @@
         <v>2027787</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1962599</v>
+        <v>1962813</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>2096733</v>
+        <v>2082047</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.5714652889910078</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.5530941097901384</v>
+        <v>0.5531546503342207</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5908953638903375</v>
+        <v>0.5867566159645871</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3714</v>
@@ -5038,19 +5038,19 @@
         <v>3973228</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>3891685</v>
+        <v>3889096</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>4063955</v>
+        <v>4063137</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.5704435270796084</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.5587362455379626</v>
+        <v>0.5583645393134289</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5834693873773422</v>
+        <v>0.5833519388303203</v>
       </c>
     </row>
     <row r="31">
@@ -5067,19 +5067,19 @@
         <v>796876</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>746841</v>
+        <v>744614</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>846844</v>
+        <v>845569</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2332257582001053</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2185819735255743</v>
+        <v>0.2179300345309016</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2478501914938861</v>
+        <v>0.2474771508822098</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>691</v>
@@ -5088,19 +5088,19 @@
         <v>753336</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>697264</v>
+        <v>701515</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>801490</v>
+        <v>806588</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2123030151722142</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1965009953900586</v>
+        <v>0.1976989111040472</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2258736083914252</v>
+        <v>0.2273102865197675</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1433</v>
@@ -5109,19 +5109,19 @@
         <v>1550211</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1479678</v>
+        <v>1479458</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1621804</v>
+        <v>1623023</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2225666654689838</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2124400404275269</v>
+        <v>0.2124085185952233</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2328454170051106</v>
+        <v>0.2330204223529436</v>
       </c>
     </row>
     <row r="32">
@@ -5138,19 +5138,19 @@
         <v>63316</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>48059</v>
+        <v>48361</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>83250</v>
+        <v>79632</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01853105733480661</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01406561931714286</v>
+        <v>0.01415409290780021</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02436535369523919</v>
+        <v>0.02330640527971473</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>50</v>
@@ -5159,19 +5159,19 @@
         <v>52998</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>39037</v>
+        <v>39534</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>69388</v>
+        <v>69478</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01493580606927019</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01100124955321585</v>
+        <v>0.01114141894387001</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.0195547059173845</v>
+        <v>0.01957999757428721</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>111</v>
@@ -5180,19 +5180,19 @@
         <v>116314</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>96344</v>
+        <v>96126</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>141209</v>
+        <v>138795</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01669945635495664</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01383231964967733</v>
+        <v>0.01380104698585665</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02027357814242206</v>
+        <v>0.01992701718232054</v>
       </c>
     </row>
     <row r="33">
@@ -5524,19 +5524,19 @@
         <v>21242</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13094</v>
+        <v>13397</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30617</v>
+        <v>32651</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03160152379108832</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01947945990577369</v>
+        <v>0.01993099463337091</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04554757319778985</v>
+        <v>0.0485747284565453</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -5545,19 +5545,19 @@
         <v>14905</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8642</v>
+        <v>8747</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>23623</v>
+        <v>24381</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02218331722458995</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0128623701386887</v>
+        <v>0.01301812355523021</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03515891687241056</v>
+        <v>0.03628815231153962</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>36</v>
@@ -5566,19 +5566,19 @@
         <v>36147</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>26585</v>
+        <v>24620</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>50159</v>
+        <v>49448</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02689348903646539</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01977966452523628</v>
+        <v>0.01831740833215749</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03731867976316881</v>
+        <v>0.03678943409214162</v>
       </c>
     </row>
     <row r="5">
@@ -5595,19 +5595,19 @@
         <v>69284</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>54788</v>
+        <v>54534</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>85755</v>
+        <v>87853</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1030717082348686</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08150655923308577</v>
+        <v>0.0811287805503101</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1275761770277739</v>
+        <v>0.1306968286391458</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>95</v>
@@ -5616,19 +5616,19 @@
         <v>94451</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>77987</v>
+        <v>78209</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>113118</v>
+        <v>113804</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1405759868445315</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1160721476275335</v>
+        <v>0.1164029274690647</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1683593348560876</v>
+        <v>0.1693799501113473</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>161</v>
@@ -5637,19 +5637,19 @@
         <v>163735</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>142108</v>
+        <v>140220</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>186270</v>
+        <v>188155</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1218195925475188</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1057288956831393</v>
+        <v>0.1043245348177941</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1385857611667964</v>
+        <v>0.1399883180032925</v>
       </c>
     </row>
     <row r="6">
@@ -5666,19 +5666,19 @@
         <v>398856</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>370281</v>
+        <v>373170</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>423891</v>
+        <v>425516</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5933685473850424</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5508580833498636</v>
+        <v>0.5551557492642806</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6306121677814793</v>
+        <v>0.6330289899536021</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>397</v>
@@ -5687,19 +5687,19 @@
         <v>404068</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>378047</v>
+        <v>377600</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>428747</v>
+        <v>428871</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6013939380477712</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5626659303020997</v>
+        <v>0.5620006265018648</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6381255861786899</v>
+        <v>0.6383101771034566</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>787</v>
@@ -5708,19 +5708,19 @@
         <v>802925</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>766987</v>
+        <v>763338</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>836838</v>
+        <v>838968</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5973803322076385</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5706429035868728</v>
+        <v>0.5679273643651067</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6226121718298779</v>
+        <v>0.6241966380173483</v>
       </c>
     </row>
     <row r="7">
@@ -5737,19 +5737,19 @@
         <v>170492</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>148518</v>
+        <v>146783</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>194956</v>
+        <v>194866</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2536363684498582</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2209468155217892</v>
+        <v>0.2183659633479471</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2900317149315489</v>
+        <v>0.2898966989580543</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>144</v>
@@ -5758,19 +5758,19 @@
         <v>144685</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>124193</v>
+        <v>123605</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>166145</v>
+        <v>168272</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2153413363705149</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1848423137981133</v>
+        <v>0.1839667597822786</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2472826177182559</v>
+        <v>0.2504480922576526</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>305</v>
@@ -5779,19 +5779,19 @@
         <v>315177</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>283378</v>
+        <v>283994</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>345637</v>
+        <v>347319</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2344931971161273</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2108344905522729</v>
+        <v>0.2112929001766052</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2571555992380519</v>
+        <v>0.2584074056171385</v>
       </c>
     </row>
     <row r="8">
@@ -5808,19 +5808,19 @@
         <v>12316</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6275</v>
+        <v>6945</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>21527</v>
+        <v>21109</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01832185213914242</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.009335348674060131</v>
+        <v>0.01033235880107083</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03202521126300245</v>
+        <v>0.03140350110066823</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>14</v>
@@ -5829,19 +5829,19 @@
         <v>13777</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>7653</v>
+        <v>7964</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>23961</v>
+        <v>23733</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02050542151259249</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01138976816337235</v>
+        <v>0.01185385836836551</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03566295601476459</v>
+        <v>0.03532237470141023</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>26</v>
@@ -5850,19 +5850,19 @@
         <v>26093</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>17571</v>
+        <v>17400</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>37887</v>
+        <v>37141</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01941338909224997</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01307318974120979</v>
+        <v>0.01294539449409215</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02818808977499487</v>
+        <v>0.02763293034409168</v>
       </c>
     </row>
     <row r="9">
@@ -5954,19 +5954,19 @@
         <v>16246</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9440</v>
+        <v>9620</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25201</v>
+        <v>25990</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01598591861763169</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.009288238496475559</v>
+        <v>0.00946608035250221</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02479652485224862</v>
+        <v>0.02557306945010329</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -5975,19 +5975,19 @@
         <v>20731</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12588</v>
+        <v>12395</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>32183</v>
+        <v>32793</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01989684146021257</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0120810042445437</v>
+        <v>0.01189655582771729</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0308877077851607</v>
+        <v>0.03147328052503413</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>35</v>
@@ -5996,19 +5996,19 @@
         <v>36978</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>25394</v>
+        <v>26027</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>50546</v>
+        <v>53856</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01796573966678316</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01233770901725855</v>
+        <v>0.01264540791681774</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02455801595429107</v>
+        <v>0.02616633779340426</v>
       </c>
     </row>
     <row r="11">
@@ -6025,19 +6025,19 @@
         <v>102663</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>85343</v>
+        <v>84246</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>123950</v>
+        <v>123252</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.101016923960121</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08397532500433302</v>
+        <v>0.08289511566714956</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1219634193151032</v>
+        <v>0.1212762729691445</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>115</v>
@@ -6046,19 +6046,19 @@
         <v>125586</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>106635</v>
+        <v>105727</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>151494</v>
+        <v>148734</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1205319806515564</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1023437372170967</v>
+        <v>0.1014719062228156</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1453975053846131</v>
+        <v>0.142748459365044</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>213</v>
@@ -6067,19 +6067,19 @@
         <v>228249</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>197673</v>
+        <v>201960</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>256187</v>
+        <v>258168</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.110896004056621</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09604056594415267</v>
+        <v>0.09812332080411162</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1244700456623354</v>
+        <v>0.1254326424503041</v>
       </c>
     </row>
     <row r="12">
@@ -6096,19 +6096,19 @@
         <v>617984</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>587499</v>
+        <v>584187</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>649820</v>
+        <v>648380</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6080775729464022</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5780810741958959</v>
+        <v>0.5748220888771769</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6394024805705406</v>
+        <v>0.6379858652828378</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>584</v>
@@ -6117,19 +6117,19 @@
         <v>624528</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>590800</v>
+        <v>596371</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>655038</v>
+        <v>658527</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5993946307221866</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5670236506067154</v>
+        <v>0.572370268613263</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6286762143268411</v>
+        <v>0.6320252195579473</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1153</v>
@@ -6138,19 +6138,19 @@
         <v>1242513</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1197920</v>
+        <v>1199614</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1292073</v>
+        <v>1291416</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.603682019140814</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5820162807757108</v>
+        <v>0.5828394861438336</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6277609512306931</v>
+        <v>0.627442080548551</v>
       </c>
     </row>
     <row r="13">
@@ -6167,19 +6167,19 @@
         <v>252042</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>221182</v>
+        <v>225950</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>278652</v>
+        <v>282142</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.248001471833075</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.217636288807208</v>
+        <v>0.222328135772082</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2741851800544992</v>
+        <v>0.2776191798943344</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>238</v>
@@ -6188,19 +6188,19 @@
         <v>251071</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>224977</v>
+        <v>221237</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>279619</v>
+        <v>277386</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2409663552068995</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2159230697983147</v>
+        <v>0.2123330551064611</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2683660896024665</v>
+        <v>0.2662231980721603</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>475</v>
@@ -6209,19 +6209,19 @@
         <v>503112</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>463623</v>
+        <v>457387</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>542386</v>
+        <v>542420</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2444400944957134</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2252540772973221</v>
+        <v>0.2222242959782155</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2635213696595469</v>
+        <v>0.2635378673321007</v>
       </c>
     </row>
     <row r="14">
@@ -6238,19 +6238,19 @@
         <v>27357</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>18487</v>
+        <v>18049</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>41431</v>
+        <v>40459</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02691811264277016</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01819039912514631</v>
+        <v>0.01775967883336293</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04076638401807832</v>
+        <v>0.03980994286989828</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>20</v>
@@ -6259,19 +6259,19 @@
         <v>20016</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>12306</v>
+        <v>12920</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>29439</v>
+        <v>30397</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01921019195914482</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01181039034217376</v>
+        <v>0.01240051810854285</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02825396874867054</v>
+        <v>0.02917393173674332</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>45</v>
@@ -6280,19 +6280,19 @@
         <v>47372</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>35482</v>
+        <v>34975</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>62466</v>
+        <v>64285</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02301614264006847</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01723907916652798</v>
+        <v>0.01699272286439597</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03034930212918839</v>
+        <v>0.03123340990682786</v>
       </c>
     </row>
     <row r="15">
@@ -6384,19 +6384,19 @@
         <v>12254</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6498</v>
+        <v>5728</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21327</v>
+        <v>21523</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01624326772752668</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008614289104950027</v>
+        <v>0.007593168585478289</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02827123869506318</v>
+        <v>0.02853110041514918</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -6405,19 +6405,19 @@
         <v>8299</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3918</v>
+        <v>3614</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16416</v>
+        <v>16320</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01069579222871873</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.005050143430067992</v>
+        <v>0.004657558424040111</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02115680027390418</v>
+        <v>0.02103349497996914</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>19</v>
@@ -6426,19 +6426,19 @@
         <v>20553</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>13120</v>
+        <v>13050</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>31265</v>
+        <v>32046</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0134304966805208</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008573698035720159</v>
+        <v>0.00852806869210883</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02043052086272276</v>
+        <v>0.02094075295025641</v>
       </c>
     </row>
     <row r="17">
@@ -6455,19 +6455,19 @@
         <v>119602</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>98890</v>
+        <v>99098</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>142001</v>
+        <v>142010</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1585425311764421</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1310871936628824</v>
+        <v>0.1313634247977306</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1882351302384097</v>
+        <v>0.1882473208092488</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>132</v>
@@ -6476,19 +6476,19 @@
         <v>138853</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>117977</v>
+        <v>119863</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>160710</v>
+        <v>162950</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1789538933027365</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1520480984203571</v>
+        <v>0.1544789280140162</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2071223029105749</v>
+        <v>0.2100097587327993</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>237</v>
@@ -6497,19 +6497,19 @@
         <v>258455</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>229072</v>
+        <v>229634</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>288336</v>
+        <v>293395</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1688918312195211</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1496909241057178</v>
+        <v>0.1500579370017112</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1884178090062675</v>
+        <v>0.1917237660660259</v>
       </c>
     </row>
     <row r="18">
@@ -6526,19 +6526,19 @@
         <v>384377</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>356340</v>
+        <v>356812</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>412185</v>
+        <v>413517</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5095261222055039</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.472359898848942</v>
+        <v>0.4729852620276802</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5463877706561496</v>
+        <v>0.5481527731295559</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>383</v>
@@ -6547,19 +6547,19 @@
         <v>408384</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>378690</v>
+        <v>380858</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>436191</v>
+        <v>438377</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.5263241043850222</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4880553334190066</v>
+        <v>0.490848273849105</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5621618198741379</v>
+        <v>0.564979543314883</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>740</v>
@@ -6568,19 +6568,19 @@
         <v>792761</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>754460</v>
+        <v>748905</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>833412</v>
+        <v>833273</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5180433077131862</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.49301487376961</v>
+        <v>0.4893849809544188</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.54460760885371</v>
+        <v>0.5445165115356664</v>
       </c>
     </row>
     <row r="19">
@@ -6597,19 +6597,19 @@
         <v>222771</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>197972</v>
+        <v>196771</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>251160</v>
+        <v>249216</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2953024438807534</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2624299194309238</v>
+        <v>0.2608379343778189</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3329345798892647</v>
+        <v>0.3303571914511593</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>194</v>
@@ -6618,19 +6618,19 @@
         <v>208126</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>184615</v>
+        <v>183857</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>235074</v>
+        <v>234870</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2682318192709019</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2379317250425478</v>
+        <v>0.2369542388247083</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3029625364296414</v>
+        <v>0.3027001759575397</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>398</v>
@@ -6639,19 +6639,19 @@
         <v>430896</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>396125</v>
+        <v>396966</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>467781</v>
+        <v>470804</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2815766565125502</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2588547553715036</v>
+        <v>0.2594044934746353</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3056794922664749</v>
+        <v>0.3076548075889684</v>
       </c>
     </row>
     <row r="20">
@@ -6668,19 +6668,19 @@
         <v>15379</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>8879</v>
+        <v>8969</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>24884</v>
+        <v>24214</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02038563500977397</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01176956487005051</v>
+        <v>0.01188938631196095</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03298610059657896</v>
+        <v>0.03209811498537488</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>12</v>
@@ -6689,19 +6689,19 @@
         <v>12255</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>6865</v>
+        <v>6880</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>20140</v>
+        <v>21235</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01579439081262069</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.008847159872233203</v>
+        <v>0.008867016913012494</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02595574482865841</v>
+        <v>0.02736745419840114</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>27</v>
@@ -6710,19 +6710,19 @@
         <v>27634</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>19053</v>
+        <v>19111</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>39738</v>
+        <v>40630</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01805770787422168</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01245047668145803</v>
+        <v>0.01248840580309846</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02596733564843287</v>
+        <v>0.02655033001103543</v>
       </c>
     </row>
     <row r="21">
@@ -6814,19 +6814,19 @@
         <v>18757</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>11910</v>
+        <v>11774</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>28376</v>
+        <v>29654</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02006073366017934</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01273723834779101</v>
+        <v>0.0125922364645823</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03034824667706493</v>
+        <v>0.03171546222228712</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>14</v>
@@ -6835,19 +6835,19 @@
         <v>16248</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>9320</v>
+        <v>9207</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>26909</v>
+        <v>26922</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0156767278361033</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.00899270271346812</v>
+        <v>0.008883333359034101</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02596384828215001</v>
+        <v>0.02597577236401511</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>32</v>
@@ -6856,19 +6856,19 @@
         <v>35005</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>24295</v>
+        <v>23692</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>48953</v>
+        <v>48779</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01775597890960953</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01232365079671793</v>
+        <v>0.0120176833599952</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02483102345512274</v>
+        <v>0.02474290911293317</v>
       </c>
     </row>
     <row r="23">
@@ -6885,19 +6885,19 @@
         <v>110249</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>92412</v>
+        <v>92137</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>132317</v>
+        <v>130240</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1179110969983573</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.09883475721713982</v>
+        <v>0.09854023124039246</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.141513250631039</v>
+        <v>0.1392917461762186</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>139</v>
@@ -6906,19 +6906,19 @@
         <v>150304</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>130629</v>
+        <v>128295</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>178858</v>
+        <v>175116</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.145022193093889</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1260383112340561</v>
+        <v>0.1237864789318204</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.172572743478138</v>
+        <v>0.1689623807874326</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>246</v>
@@ -6927,19 +6927,19 @@
         <v>260553</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>230559</v>
+        <v>230165</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>294060</v>
+        <v>294403</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1321639128080854</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1169494771985119</v>
+        <v>0.1167498897924907</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1491602861799669</v>
+        <v>0.1493343612328273</v>
       </c>
     </row>
     <row r="24">
@@ -6956,19 +6956,19 @@
         <v>562448</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>529540</v>
+        <v>532595</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>592070</v>
+        <v>587579</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.6015392587305894</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5663435432668208</v>
+        <v>0.5696115311515819</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6332199769791775</v>
+        <v>0.6284168867372586</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>575</v>
@@ -6977,19 +6977,19 @@
         <v>623430</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>593893</v>
+        <v>589946</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>653594</v>
+        <v>657858</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.6015224416003465</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5730226930101744</v>
+        <v>0.5692147718120564</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6306264091485061</v>
+        <v>0.6347399453760041</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1138</v>
@@ -6998,19 +6998,19 @@
         <v>1185879</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1141896</v>
+        <v>1141253</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1228896</v>
+        <v>1234337</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.6015304176472575</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5792201241881338</v>
+        <v>0.5788939089745472</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6233501419994042</v>
+        <v>0.6261105446864093</v>
       </c>
     </row>
     <row r="25">
@@ -7027,19 +7027,19 @@
         <v>217486</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>192469</v>
+        <v>193836</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>241858</v>
+        <v>242053</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2326019067565667</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.205845935932678</v>
+        <v>0.2073077091277599</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2586679635175079</v>
+        <v>0.2588755844583789</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>208</v>
@@ -7048,19 +7048,19 @@
         <v>227005</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>202562</v>
+        <v>200421</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>257833</v>
+        <v>257012</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.219028263228531</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1954433700035799</v>
+        <v>0.1933781818873449</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2487725815546054</v>
+        <v>0.2479799727873098</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>423</v>
@@ -7069,19 +7069,19 @@
         <v>444492</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>408297</v>
+        <v>407985</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>482104</v>
+        <v>483909</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2254659857155916</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2071063916118059</v>
+        <v>0.2069481195628635</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2445445902032693</v>
+        <v>0.2454599567177457</v>
       </c>
     </row>
     <row r="26">
@@ -7098,19 +7098,19 @@
         <v>26075</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>17452</v>
+        <v>17565</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>36744</v>
+        <v>37240</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0278870038543072</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01866543336892201</v>
+        <v>0.01878576891461611</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03929796396835922</v>
+        <v>0.03982860945076037</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>16</v>
@@ -7119,19 +7119,19 @@
         <v>19433</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>11227</v>
+        <v>11540</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>30776</v>
+        <v>32222</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01875037424113024</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0108321151188865</v>
+        <v>0.01113479400039386</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02969429749794584</v>
+        <v>0.0310895439980954</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>42</v>
@@ -7140,19 +7140,19 @@
         <v>45508</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>32805</v>
+        <v>31955</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>62294</v>
+        <v>60780</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02308370491945588</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01664000361958048</v>
+        <v>0.01620908489124389</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03159843809268969</v>
+        <v>0.03083053627933489</v>
       </c>
     </row>
     <row r="27">
@@ -7244,19 +7244,19 @@
         <v>68499</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>53440</v>
+        <v>52855</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>86861</v>
+        <v>85117</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02027879303970837</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01582055655242332</v>
+        <v>0.01564750278706325</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02571455041018515</v>
+        <v>0.02519844815361166</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>56</v>
@@ -7265,19 +7265,19 @@
         <v>60183</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>45595</v>
+        <v>45229</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>77038</v>
+        <v>76886</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01706746676389145</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01293054633448727</v>
+        <v>0.01282658933586686</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02184763360433809</v>
+        <v>0.02180451958973378</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>122</v>
@@ -7286,19 +7286,19 @@
         <v>128682</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>108222</v>
+        <v>105251</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>154727</v>
+        <v>151669</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01863864547653226</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01567513473473864</v>
+        <v>0.0152447939151932</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0224111019181121</v>
+        <v>0.0219681802637992</v>
       </c>
     </row>
     <row r="29">
@@ -7315,19 +7315,19 @@
         <v>401797</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>363175</v>
+        <v>365137</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>440864</v>
+        <v>439084</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1189494116966439</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1075155678859404</v>
+        <v>0.1080965945206602</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1305149430156127</v>
+        <v>0.1299881448030554</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>481</v>
@@ -7336,19 +7336,19 @@
         <v>509195</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>464462</v>
+        <v>472013</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>551254</v>
+        <v>554939</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1444050053068937</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1317192032244497</v>
+        <v>0.133860528440996</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1563327792408507</v>
+        <v>0.1573779282316475</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>857</v>
@@ -7357,19 +7357,19 @@
         <v>910991</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>856614</v>
+        <v>852047</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>977826</v>
+        <v>964309</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1319505602076065</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1240743387118365</v>
+        <v>0.1234128623930689</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1416310619521207</v>
+        <v>0.1396731884059309</v>
       </c>
     </row>
     <row r="30">
@@ -7386,19 +7386,19 @@
         <v>1963666</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1912197</v>
+        <v>1912259</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2022928</v>
+        <v>2026460</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.5813311761636435</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5660940759426023</v>
+        <v>0.5661123147290031</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5988752697417686</v>
+        <v>0.5999209456944444</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1939</v>
@@ -7407,19 +7407,19 @@
         <v>2060411</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2003711</v>
+        <v>1997007</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>2120378</v>
+        <v>2117681</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.5843221154231818</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.5682422890735657</v>
+        <v>0.5663410596403202</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.6013284329168604</v>
+        <v>0.6005635457889361</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3818</v>
@@ -7428,19 +7428,19 @@
         <v>4024077</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>3941419</v>
+        <v>3943700</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>4109854</v>
+        <v>4104067</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.5828587636202907</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.5708862962529193</v>
+        <v>0.5712166722673158</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5952829497780154</v>
+        <v>0.5944446293673838</v>
       </c>
     </row>
     <row r="31">
@@ -7457,19 +7457,19 @@
         <v>862791</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>810010</v>
+        <v>809500</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>912090</v>
+        <v>911667</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2554238466466451</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2397985321692366</v>
+        <v>0.239647389182</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2700184333456547</v>
+        <v>0.2698933775809056</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>784</v>
@@ -7478,19 +7478,19 @@
         <v>830887</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>779933</v>
+        <v>782630</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>880458</v>
+        <v>887157</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.235635208373412</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2211851126597631</v>
+        <v>0.2219498165399389</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2496934217202476</v>
+        <v>0.2515932490053952</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1601</v>
@@ -7499,19 +7499,19 @@
         <v>1693677</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1619897</v>
+        <v>1623163</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1762519</v>
+        <v>1767192</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2453170296947736</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2346305425546752</v>
+        <v>0.2351035661797511</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2552882830301152</v>
+        <v>0.2559650684165257</v>
       </c>
     </row>
     <row r="32">
@@ -7528,19 +7528,19 @@
         <v>81126</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>63137</v>
+        <v>64390</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>99833</v>
+        <v>99700</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02401677245335922</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01869126777357172</v>
+        <v>0.01906224294974567</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02955495906979274</v>
+        <v>0.02951556739054615</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>62</v>
@@ -7549,19 +7549,19 @@
         <v>65481</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>49518</v>
+        <v>51568</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>81842</v>
+        <v>82000</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.0185702041326211</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01404297300007976</v>
+        <v>0.01462449845536223</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02321004216836639</v>
+        <v>0.02325482051085115</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>140</v>
@@ -7570,19 +7570,19 @@
         <v>146607</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>123675</v>
+        <v>124734</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>171799</v>
+        <v>171947</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02123500100079689</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01791336516831637</v>
+        <v>0.01806679948241172</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.024883789430475</v>
+        <v>0.02490533275623745</v>
       </c>
     </row>
     <row r="33">
@@ -7914,19 +7914,19 @@
         <v>6726</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2899</v>
+        <v>2732</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13832</v>
+        <v>13468</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.009737513296274683</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004197597267126444</v>
+        <v>0.003954953535291127</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02002533394618742</v>
+        <v>0.01949842089827947</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -7935,19 +7935,19 @@
         <v>5951</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3157</v>
+        <v>3043</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10879</v>
+        <v>11311</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.00812807399213876</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.004311851290344495</v>
+        <v>0.004155764169730562</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01485869579303311</v>
+        <v>0.01544910236610356</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>18</v>
@@ -7956,19 +7956,19 @@
         <v>12677</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7449</v>
+        <v>7357</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>20816</v>
+        <v>20684</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.008909348359426979</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.005235092869192763</v>
+        <v>0.005170503827961821</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01462922928994996</v>
+        <v>0.01453657244179899</v>
       </c>
     </row>
     <row r="5">
@@ -7985,19 +7985,19 @@
         <v>46784</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>34469</v>
+        <v>34375</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>64902</v>
+        <v>64400</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.06773322641447532</v>
+        <v>0.06773322641447534</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04990371541409259</v>
+        <v>0.04976809745911008</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09396478440083229</v>
+        <v>0.09323797904284653</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>129</v>
@@ -8006,19 +8006,19 @@
         <v>61537</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>50569</v>
+        <v>51781</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>72739</v>
+        <v>74383</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08404843185579763</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06906770995856408</v>
+        <v>0.07072355966375084</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09934738826114528</v>
+        <v>0.1015928708127043</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>184</v>
@@ -8027,19 +8027,19 @@
         <v>108321</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>91478</v>
+        <v>91767</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>130809</v>
+        <v>131067</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07612849863707347</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06429124662212236</v>
+        <v>0.06449383305233727</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09193266804138443</v>
+        <v>0.09211400162355073</v>
       </c>
     </row>
     <row r="6">
@@ -8056,19 +8056,19 @@
         <v>426536</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>400297</v>
+        <v>396156</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>459590</v>
+        <v>452413</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.617532507936817</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5795442971115057</v>
+        <v>0.5735490600746229</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6653881541589485</v>
+        <v>0.6549965718783001</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>835</v>
@@ -8077,19 +8077,19 @@
         <v>486670</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>462793</v>
+        <v>464385</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>507289</v>
+        <v>509355</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.6647001548366697</v>
+        <v>0.6647001548366698</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6320886846242868</v>
+        <v>0.6342622429337622</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6928615479922192</v>
+        <v>0.6956834139895597</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1311</v>
@@ -8098,19 +8098,19 @@
         <v>913205</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>876270</v>
+        <v>878100</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>947785</v>
+        <v>946377</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6418034395685279</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6158450798569002</v>
+        <v>0.6171315148214118</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6661063990298063</v>
+        <v>0.6651168492912384</v>
       </c>
     </row>
     <row r="7">
@@ -8127,19 +8127,19 @@
         <v>183021</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>158319</v>
+        <v>160399</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>208788</v>
+        <v>209572</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2649752277911846</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2292126707894753</v>
+        <v>0.2322234673829997</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3022804363322373</v>
+        <v>0.3034147126295745</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>244</v>
@@ -8148,19 +8148,19 @@
         <v>164651</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>146686</v>
+        <v>144938</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>186932</v>
+        <v>185419</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2248817646206627</v>
+        <v>0.2248817646206628</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2003449138774443</v>
+        <v>0.1979576440358654</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2553144760966231</v>
+        <v>0.2532474438912615</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>416</v>
@@ -8169,19 +8169,19 @@
         <v>347671</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>316016</v>
+        <v>315796</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>380665</v>
+        <v>380148</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2443444402185848</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2220968825249572</v>
+        <v>0.2219423789899755</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.267532181904549</v>
+        <v>0.2671688007084264</v>
       </c>
     </row>
     <row r="8">
@@ -8198,19 +8198,19 @@
         <v>27643</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>14740</v>
+        <v>15967</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>46240</v>
+        <v>46634</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04002152456124834</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02134038324217904</v>
+        <v>0.02311708737016002</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06694577576075254</v>
+        <v>0.06751541068982493</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>19</v>
@@ -8219,19 +8219,19 @@
         <v>13356</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>8251</v>
+        <v>8131</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>21246</v>
+        <v>20135</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01824157469473122</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01126887931970333</v>
+        <v>0.01110599192883266</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02901739005174734</v>
+        <v>0.02750087459654816</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>38</v>
@@ -8240,19 +8240,19 @@
         <v>40999</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>27318</v>
+        <v>29087</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>59112</v>
+        <v>60117</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02881427321638682</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01919902054811863</v>
+        <v>0.02044268785467582</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04154443693729813</v>
+        <v>0.04225051364884037</v>
       </c>
     </row>
     <row r="9">
@@ -8344,19 +8344,19 @@
         <v>14097</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7804</v>
+        <v>7054</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>26049</v>
+        <v>25616</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01343980533673176</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.007440276839043367</v>
+        <v>0.006725216488899903</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0248343806573852</v>
+        <v>0.02442140097714943</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -8365,19 +8365,19 @@
         <v>9617</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5314</v>
+        <v>4973</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>19313</v>
+        <v>18563</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.00898096985282597</v>
+        <v>0.008980969852825971</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.004962272381313261</v>
+        <v>0.004643588760097292</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0180355271561725</v>
+        <v>0.0173352942029951</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>25</v>
@@ -8386,19 +8386,19 @@
         <v>23714</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>14673</v>
+        <v>15270</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>36013</v>
+        <v>37060</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01118733266029491</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006922212652472648</v>
+        <v>0.007203562055039623</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01698899920662578</v>
+        <v>0.01748335560106247</v>
       </c>
     </row>
     <row r="11">
@@ -8415,19 +8415,19 @@
         <v>69467</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>54666</v>
+        <v>54725</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>85467</v>
+        <v>85856</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.06622689669127906</v>
+        <v>0.06622689669127904</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05211621614597095</v>
+        <v>0.05217292695822665</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.08148159150971442</v>
+        <v>0.08185229200138602</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>125</v>
@@ -8436,19 +8436,19 @@
         <v>71401</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>59755</v>
+        <v>58525</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>85467</v>
+        <v>86057</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.06667760169622443</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05580245098714603</v>
+        <v>0.0546537819511495</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.07981317898410456</v>
+        <v>0.08036412305748637</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>211</v>
@@ -8457,19 +8457,19 @@
         <v>140867</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>122215</v>
+        <v>122628</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>162917</v>
+        <v>164331</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0664545796171096</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05765535511224334</v>
+        <v>0.05785003977516128</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.07685666020248087</v>
+        <v>0.07752340608360019</v>
       </c>
     </row>
     <row r="12">
@@ -8486,19 +8486,19 @@
         <v>576206</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>541188</v>
+        <v>540510</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>611406</v>
+        <v>614121</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5493340604845097</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5159491088767975</v>
+        <v>0.5153029546145171</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5828927630758525</v>
+        <v>0.5854809734440212</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>940</v>
@@ -8507,19 +8507,19 @@
         <v>636588</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>609576</v>
+        <v>606556</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>668890</v>
+        <v>666440</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5944765883202449</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5692512340118253</v>
+        <v>0.5664309414788045</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6246413983354138</v>
+        <v>0.6223540406305457</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1486</v>
@@ -8528,19 +8528,19 @@
         <v>1212794</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1166727</v>
+        <v>1168790</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1259516</v>
+        <v>1260730</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.5721387391640229</v>
+        <v>0.572138739164023</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5504067677780662</v>
+        <v>0.5513795269651756</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.594180053089915</v>
+        <v>0.5947528258193543</v>
       </c>
     </row>
     <row r="13">
@@ -8557,19 +8557,19 @@
         <v>358042</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>324034</v>
+        <v>321220</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>393514</v>
+        <v>394852</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3413447920500358</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3089224201179235</v>
+        <v>0.3062400621865581</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3751621038596918</v>
+        <v>0.3764378551208946</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>402</v>
@@ -8578,19 +8578,19 @@
         <v>322521</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>295693</v>
+        <v>294644</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>350880</v>
+        <v>351131</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3011857533501336</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2761323656276998</v>
+        <v>0.275152707658411</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3276688185123096</v>
+        <v>0.3279026591891675</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>694</v>
@@ -8599,19 +8599,19 @@
         <v>680564</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>634392</v>
+        <v>635246</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>723463</v>
+        <v>724880</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3210576256564773</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2992762805617615</v>
+        <v>0.2996788966268439</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3412954590956151</v>
+        <v>0.3419642454676419</v>
       </c>
     </row>
     <row r="14">
@@ -8628,19 +8628,19 @@
         <v>31105</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>21100</v>
+        <v>20604</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>47103</v>
+        <v>46214</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.02965444543744371</v>
+        <v>0.02965444543744372</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02011612689240684</v>
+        <v>0.01964290970828529</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04490624542097732</v>
+        <v>0.04405843402198194</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>37</v>
@@ -8649,19 +8649,19 @@
         <v>30711</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>21859</v>
+        <v>22604</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>42399</v>
+        <v>42533</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02867908678057121</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0204132153650259</v>
+        <v>0.0211088302153908</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03959451808166509</v>
+        <v>0.03971896605075955</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>64</v>
@@ -8670,19 +8670,19 @@
         <v>61816</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>48387</v>
+        <v>47371</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>78907</v>
+        <v>78705</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02916172290209532</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02282670193627111</v>
+        <v>0.02234742590783605</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03722444877782827</v>
+        <v>0.03712920022699404</v>
       </c>
     </row>
     <row r="15">
@@ -8774,19 +8774,19 @@
         <v>8782</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3122</v>
+        <v>3676</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21783</v>
+        <v>20324</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0109350205648427</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.00388800830626125</v>
+        <v>0.004576951780266949</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0271246294555799</v>
+        <v>0.02530759801471353</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -8795,19 +8795,19 @@
         <v>7104</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2725</v>
+        <v>3298</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16791</v>
+        <v>16400</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.008746396310195175</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.003355207907935051</v>
+        <v>0.004060317340356005</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02067234842337724</v>
+        <v>0.02019108901046876</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>15</v>
@@ -8816,19 +8816,19 @@
         <v>15886</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>9102</v>
+        <v>8827</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>30244</v>
+        <v>28553</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.009834485557941834</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.00563476858674016</v>
+        <v>0.005464367791102028</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01872333584317955</v>
+        <v>0.01767644726187658</v>
       </c>
     </row>
     <row r="17">
@@ -8845,19 +8845,19 @@
         <v>91414</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>73333</v>
+        <v>72337</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>115816</v>
+        <v>113880</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1138302145316907</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09131500464407691</v>
+        <v>0.09007467614481067</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1442154402080317</v>
+        <v>0.1418056512057788</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>156</v>
@@ -8866,19 +8866,19 @@
         <v>122914</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>104525</v>
+        <v>104381</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>142093</v>
+        <v>144119</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1513234582454613</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1286844819569156</v>
+        <v>0.1285066296596643</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1749353300452475</v>
+        <v>0.1774298031641827</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>230</v>
@@ -8887,19 +8887,19 @@
         <v>214328</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>187753</v>
+        <v>186799</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>242971</v>
+        <v>245095</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.132683440315719</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1162319413922241</v>
+        <v>0.1156413165216382</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1504156567168602</v>
+        <v>0.1517303871553245</v>
       </c>
     </row>
     <row r="18">
@@ -8916,19 +8916,19 @@
         <v>397754</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>364290</v>
+        <v>360108</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>429327</v>
+        <v>431110</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.4952900914374111</v>
+        <v>0.4952900914374112</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4536202555628013</v>
+        <v>0.448411929652011</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5346049589927648</v>
+        <v>0.5368255242112413</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>500</v>
@@ -8937,19 +8937,19 @@
         <v>383268</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>359045</v>
+        <v>355006</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>409781</v>
+        <v>411667</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.4718547629621977</v>
+        <v>0.4718547629621976</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4420326144680554</v>
+        <v>0.4370599076975108</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5044955737154744</v>
+        <v>0.5068171646253771</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>839</v>
@@ -8958,19 +8958,19 @@
         <v>781022</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>733645</v>
+        <v>738114</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>821991</v>
+        <v>822430</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.483505793913327</v>
+        <v>0.4835057939133271</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4541760647284893</v>
+        <v>0.4569428009164756</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5088683174716371</v>
+        <v>0.5091400096246088</v>
       </c>
     </row>
     <row r="19">
@@ -8987,19 +8987,19 @@
         <v>266756</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>239795</v>
+        <v>235612</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>299070</v>
+        <v>301868</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3321690608676021</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2985972412766433</v>
+        <v>0.2933886360168299</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3724064102237656</v>
+        <v>0.3758914774567577</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>343</v>
@@ -9008,19 +9008,19 @@
         <v>265479</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>241579</v>
+        <v>242604</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>291478</v>
+        <v>293180</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3268408039516544</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2974166745673102</v>
+        <v>0.2986780215947176</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3588489168123711</v>
+        <v>0.3609435701405188</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>571</v>
@@ -9029,19 +9029,19 @@
         <v>532235</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>492580</v>
+        <v>496353</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>574307</v>
+        <v>575534</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3294897826638126</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3049402925783962</v>
+        <v>0.3072762233486781</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3555351900102954</v>
+        <v>0.356294261630315</v>
       </c>
     </row>
     <row r="20">
@@ -9058,19 +9058,19 @@
         <v>38367</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>25191</v>
+        <v>25792</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>58417</v>
+        <v>57734</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.04777561259845341</v>
+        <v>0.0477756125984534</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03136886703318419</v>
+        <v>0.03211626520099604</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0727415500116045</v>
+        <v>0.07189073308374318</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>40</v>
@@ -9079,19 +9079,19 @@
         <v>33493</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>23937</v>
+        <v>23612</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>46899</v>
+        <v>46220</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04123457853049148</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02946994380672109</v>
+        <v>0.02906899454731019</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.05773879046777922</v>
+        <v>0.05690334178724701</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>68</v>
@@ -9100,19 +9100,19 @@
         <v>71860</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>54045</v>
+        <v>55088</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>93620</v>
+        <v>94408</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.04448649754919951</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0334576323429433</v>
+        <v>0.03410329128434408</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05795695777346468</v>
+        <v>0.05844512854412164</v>
       </c>
     </row>
     <row r="21">
@@ -9204,19 +9204,19 @@
         <v>10608</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6035</v>
+        <v>5283</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>18900</v>
+        <v>18850</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01072483269729769</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.006101107601616172</v>
+        <v>0.005340694495205899</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0191077532699015</v>
+        <v>0.01905689689888374</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>32</v>
@@ -9225,19 +9225,19 @@
         <v>22911</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>15293</v>
+        <v>15958</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>32260</v>
+        <v>33670</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0204840916256534</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01367327308601741</v>
+        <v>0.01426726277033255</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0288427170502561</v>
+        <v>0.0301038758049564</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>44</v>
@@ -9246,19 +9246,19 @@
         <v>33519</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>24246</v>
+        <v>25016</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>46018</v>
+        <v>44986</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.01590392797852115</v>
+        <v>0.01590392797852114</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01150387279723059</v>
+        <v>0.01186958436483918</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0218344419170014</v>
+        <v>0.02134487583905446</v>
       </c>
     </row>
     <row r="23">
@@ -9275,19 +9275,19 @@
         <v>116289</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>95899</v>
+        <v>97596</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>138867</v>
+        <v>139244</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1175668672086309</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.09695321724604684</v>
+        <v>0.09866918521124361</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1403934122816384</v>
+        <v>0.1407742092593679</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>208</v>
@@ -9296,19 +9296,19 @@
         <v>136381</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>119863</v>
+        <v>117703</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>157449</v>
+        <v>156012</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1219351611319833</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1071669801007494</v>
+        <v>0.1052350208279411</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1407717453311263</v>
+        <v>0.1394864903556613</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>332</v>
@@ -9317,19 +9317,19 @@
         <v>252670</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>225452</v>
+        <v>223557</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>283413</v>
+        <v>280099</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1198850565928369</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1069706999993784</v>
+        <v>0.1060720020294873</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.134472034069854</v>
+        <v>0.1328992552483758</v>
       </c>
     </row>
     <row r="24">
@@ -9346,19 +9346,19 @@
         <v>523742</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>490258</v>
+        <v>492598</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>557709</v>
+        <v>559989</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.5294989744349913</v>
+        <v>0.5294989744349914</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4956464436068737</v>
+        <v>0.4980125096519836</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5638394716774905</v>
+        <v>0.5661444992722999</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>831</v>
@@ -9367,19 +9367,19 @@
         <v>588509</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>560750</v>
+        <v>557513</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>619965</v>
+        <v>618755</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.5261721557109503</v>
+        <v>0.5261721557109504</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5013529367943533</v>
+        <v>0.4984592676042934</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.554295758892387</v>
+        <v>0.553214099453196</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1370</v>
@@ -9388,19 +9388,19 @@
         <v>1112252</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1063770</v>
+        <v>1068150</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1156550</v>
+        <v>1157373</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5277334806324748</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5047302026721766</v>
+        <v>0.5068085460023998</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5487519395961915</v>
+        <v>0.5491424928082727</v>
       </c>
     </row>
     <row r="25">
@@ -9417,19 +9417,19 @@
         <v>290975</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>263210</v>
+        <v>259145</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>323243</v>
+        <v>321438</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.2941736455054814</v>
+        <v>0.2941736455054815</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2661032762596837</v>
+        <v>0.2619937681743376</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3267956953305092</v>
+        <v>0.324970666139217</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>443</v>
@@ -9438,19 +9438,19 @@
         <v>332770</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>304413</v>
+        <v>304758</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>362048</v>
+        <v>359382</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2975213781128948</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2721682810047988</v>
+        <v>0.272476596720799</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3236984275311378</v>
+        <v>0.3213147317670233</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>732</v>
@@ -9459,19 +9459,19 @@
         <v>623745</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>581663</v>
+        <v>583564</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>666895</v>
+        <v>664046</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2959502379985319</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2759834399642652</v>
+        <v>0.2768853549374212</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3164237201132489</v>
+        <v>0.3150718018853554</v>
       </c>
     </row>
     <row r="26">
@@ -9488,19 +9488,19 @@
         <v>47513</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>35464</v>
+        <v>34406</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>67283</v>
+        <v>63709</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.04803568015359869</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.03585427822480419</v>
+        <v>0.03478418488489367</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.06802264770907329</v>
+        <v>0.06440973206485662</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>47</v>
@@ -9509,19 +9509,19 @@
         <v>37902</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>28270</v>
+        <v>28092</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>51707</v>
+        <v>52428</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03388721341851805</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02527592912978298</v>
+        <v>0.02511613444527731</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.04622975156438225</v>
+        <v>0.04687483568991443</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>88</v>
@@ -9530,19 +9530,19 @@
         <v>85415</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>68055</v>
+        <v>67953</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>104273</v>
+        <v>104216</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.0405272967976353</v>
+        <v>0.04052729679763529</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.03229025977332672</v>
+        <v>0.03224172796187519</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.04947496654016768</v>
+        <v>0.04944751669467762</v>
       </c>
     </row>
     <row r="27">
@@ -9634,19 +9634,19 @@
         <v>40213</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>27854</v>
+        <v>28360</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>54763</v>
+        <v>54944</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01138585773635151</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.00788667502850148</v>
+        <v>0.008029974608341895</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01550563729346897</v>
+        <v>0.0155567181652616</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>62</v>
@@ -9655,19 +9655,19 @@
         <v>45583</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>34752</v>
+        <v>34680</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>60007</v>
+        <v>60213</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01220855217974918</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.00930748168876586</v>
+        <v>0.009288293954048355</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01607152272339744</v>
+        <v>0.01612682919205697</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>102</v>
@@ -9676,19 +9676,19 @@
         <v>85796</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>70089</v>
+        <v>68390</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>108720</v>
+        <v>106013</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01180863609376899</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.009646725371236082</v>
+        <v>0.009412849430838215</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01496374897505127</v>
+        <v>0.01459113096987101</v>
       </c>
     </row>
     <row r="29">
@@ -9705,19 +9705,19 @@
         <v>323953</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>288980</v>
+        <v>290244</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>360562</v>
+        <v>361378</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.09172394413044183</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0818215758282914</v>
+        <v>0.08217963510929641</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1020892961340979</v>
+        <v>0.1023203422527061</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>618</v>
@@ -9726,19 +9726,19 @@
         <v>392233</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>358707</v>
+        <v>362141</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>426380</v>
+        <v>425661</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1050511736750565</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.09607204686830431</v>
+        <v>0.09699161344419814</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1141966805746361</v>
+        <v>0.1140039805488549</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>957</v>
@@ -9747,19 +9747,19 @@
         <v>716186</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>668981</v>
+        <v>669389</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>768346</v>
+        <v>762675</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.09857273745950339</v>
+        <v>0.09857273745950337</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.09207564410659884</v>
+        <v>0.09213182515157918</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1057518093443147</v>
+        <v>0.1049711921259383</v>
       </c>
     </row>
     <row r="30">
@@ -9776,19 +9776,19 @@
         <v>1924238</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1859666</v>
+        <v>1853205</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1992657</v>
+        <v>1987546</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.5448277902310119</v>
+        <v>0.5448277902310121</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5265449998490935</v>
+        <v>0.5247155569586782</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5641998615777001</v>
+        <v>0.5627528277685406</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>3106</v>
@@ -9797,19 +9797,19 @@
         <v>2095035</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2041878</v>
+        <v>2039834</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>2146911</v>
+        <v>2151456</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.5611099705797572</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.5468728494188152</v>
+        <v>0.5463254494182738</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5750037574815281</v>
+        <v>0.5762210096236395</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>5006</v>
@@ -9818,19 +9818,19 @@
         <v>4019273</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>3929179</v>
+        <v>3935308</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>4098537</v>
+        <v>4108985</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.5531951172723718</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.5407949751149682</v>
+        <v>0.5416385317349908</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5641045526560086</v>
+        <v>0.5655426809236891</v>
       </c>
     </row>
     <row r="31">
@@ -9847,19 +9847,19 @@
         <v>1098795</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1035397</v>
+        <v>1038658</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1164186</v>
+        <v>1171041</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3111122090385404</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2931616855927546</v>
+        <v>0.2940852413399486</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3296269219408008</v>
+        <v>0.3315680181188264</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1432</v>
@@ -9868,19 +9868,19 @@
         <v>1085420</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1035856</v>
+        <v>1036065</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>1138105</v>
+        <v>1141845</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2907064190602862</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2774316847800126</v>
+        <v>0.2774876901118364</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.304816781841697</v>
+        <v>0.3058186099502238</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>2413</v>
@@ -9889,19 +9889,19 @@
         <v>2184215</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2105954</v>
+        <v>2107405</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>2267745</v>
+        <v>2261078</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.3006257806469944</v>
+        <v>0.3006257806469943</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2898541999234682</v>
+        <v>0.2900539157108096</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3121224695021072</v>
+        <v>0.3112047869014659</v>
       </c>
     </row>
     <row r="32">
@@ -9918,19 +9918,19 @@
         <v>144629</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>117268</v>
+        <v>116788</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>174896</v>
+        <v>174911</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.04095019886365416</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.03320323001356157</v>
+        <v>0.03306740025334364</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.04952001908038277</v>
+        <v>0.04952413549888818</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>143</v>
@@ -9939,19 +9939,19 @@
         <v>115462</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>97593</v>
+        <v>97498</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>138367</v>
+        <v>137957</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.03092388450515092</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02613827178055435</v>
+        <v>0.0261128522686566</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03705865984645085</v>
+        <v>0.03694890776627585</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>258</v>
@@ -9960,19 +9960,19 @@
         <v>260091</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>225912</v>
+        <v>225726</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>299939</v>
+        <v>297716</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.03579772852736143</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.03109359705686502</v>
+        <v>0.03106786688240862</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.04128234086315843</v>
+        <v>0.04097625970806234</v>
       </c>
     </row>
     <row r="33">
